--- a/template/checkForm.xlsx
+++ b/template/checkForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoy/Project/kwy/backend/management/src/main/resources/stastic/formDemo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoy/Project/IdeaProject/kwy_management_backend/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1604CE7-C137-9046-8742-2ADACBF3CB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11CC5CB-CCCB-2E4A-9ECB-9EEF973A2CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="6380" windowWidth="21400" windowHeight="20140" xr2:uid="{90476088-DB2B-4445-8BB4-66C7F3A33D34}"/>
+    <workbookView xWindow="8840" yWindow="760" windowWidth="21400" windowHeight="17660" xr2:uid="{90476088-DB2B-4445-8BB4-66C7F3A33D34}"/>
   </bookViews>
   <sheets>
     <sheet name="对账单" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t>河南康味源食品科技有限公司</t>
-  </si>
-  <si>
     <t>对账单</t>
   </si>
   <si>
@@ -187,6 +184,10 @@
   </si>
   <si>
     <t>回款记录请查看Sheet2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx食品科技有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -337,24 +338,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,11 +345,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -465,9 +466,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -505,7 +506,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -611,7 +612,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,7 +754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -764,7 +765,7 @@
   <dimension ref="A1:IN100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -778,133 +779,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="L2" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="L2" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
@@ -919,17 +920,17 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="IN9"/>
     </row>
     <row r="10" spans="1:248" ht="23" customHeight="1"/>
@@ -1025,15 +1026,15 @@
     <row r="100" ht="23" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,56 +1057,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="23" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="23" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="23" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="23" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" ht="23" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
